--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntn1-Unc5a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntn1-Unc5a.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.524029</v>
+        <v>2.8328235</v>
       </c>
       <c r="H2">
-        <v>3.048058</v>
+        <v>5.665647</v>
       </c>
       <c r="I2">
-        <v>0.09030204154573296</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J2">
-        <v>0.06866669168778029</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9574755</v>
+        <v>1.2352785</v>
       </c>
       <c r="N2">
-        <v>1.914951</v>
+        <v>2.470557</v>
       </c>
       <c r="O2">
-        <v>0.1146379484306801</v>
+        <v>0.08303751957845991</v>
       </c>
       <c r="P2">
-        <v>0.08953509477450465</v>
+        <v>0.05894330231292429</v>
       </c>
       <c r="Q2">
-        <v>1.4592204287895</v>
+        <v>3.49932596384475</v>
       </c>
       <c r="R2">
-        <v>5.836881715158</v>
+        <v>13.997303855379</v>
       </c>
       <c r="S2">
-        <v>0.01035204078190486</v>
+        <v>0.01339573009256683</v>
       </c>
       <c r="T2">
-        <v>0.006148078748117099</v>
+        <v>0.007563440611399491</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.524029</v>
+        <v>2.8328235</v>
       </c>
       <c r="H3">
-        <v>3.048058</v>
+        <v>5.665647</v>
       </c>
       <c r="I3">
-        <v>0.09030204154573296</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J3">
-        <v>0.06866669168778029</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.038271</v>
       </c>
       <c r="O3">
-        <v>0.2010763551574917</v>
+        <v>0.1128937123097036</v>
       </c>
       <c r="P3">
-        <v>0.2355684670180272</v>
+        <v>0.1202046059602913</v>
       </c>
       <c r="Q3">
-        <v>2.559490371286333</v>
+        <v>4.7575108293895</v>
       </c>
       <c r="R3">
-        <v>15.356942227718</v>
+        <v>28.545064976337</v>
       </c>
       <c r="S3">
-        <v>0.01815760537729637</v>
+        <v>0.01821217332750111</v>
       </c>
       <c r="T3">
-        <v>0.01617570729608992</v>
+        <v>0.01542432070688364</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.524029</v>
+        <v>2.8328235</v>
       </c>
       <c r="H4">
-        <v>3.048058</v>
+        <v>5.665647</v>
       </c>
       <c r="I4">
-        <v>0.09030204154573296</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J4">
-        <v>0.06866669168778029</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.2601</v>
+        <v>0.9657673333333333</v>
       </c>
       <c r="N4">
-        <v>3.7803</v>
+        <v>2.897302</v>
       </c>
       <c r="O4">
-        <v>0.1508709923308742</v>
+        <v>0.06492052104031899</v>
       </c>
       <c r="P4">
-        <v>0.1767510076111921</v>
+        <v>0.06912471466063731</v>
       </c>
       <c r="Q4">
-        <v>1.9204289429</v>
+        <v>2.735848397399</v>
       </c>
       <c r="R4">
-        <v>11.5225736574</v>
+        <v>16.415090384394</v>
       </c>
       <c r="S4">
-        <v>0.01362395861750856</v>
+        <v>0.01047307026678709</v>
       </c>
       <c r="T4">
-        <v>0.01213690694514224</v>
+        <v>0.008869891125883338</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.524029</v>
+        <v>2.8328235</v>
       </c>
       <c r="H5">
-        <v>3.048058</v>
+        <v>5.665647</v>
       </c>
       <c r="I5">
-        <v>0.09030204154573296</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J5">
-        <v>0.06866669168778029</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.711317</v>
+        <v>1.479042</v>
       </c>
       <c r="N5">
-        <v>5.422634</v>
+        <v>2.958084</v>
       </c>
       <c r="O5">
-        <v>0.3246243046691286</v>
+        <v>0.09942371621651677</v>
       </c>
       <c r="P5">
-        <v>0.2535396723558207</v>
+        <v>0.0705748701523682</v>
       </c>
       <c r="Q5">
-        <v>4.132125736193</v>
+        <v>4.189864935087001</v>
       </c>
       <c r="R5">
-        <v>16.528502944772</v>
+        <v>16.759459740348</v>
       </c>
       <c r="S5">
-        <v>0.02931423744698632</v>
+        <v>0.01603917450807265</v>
       </c>
       <c r="T5">
-        <v>0.01740973051227797</v>
+        <v>0.009055971045206019</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.524029</v>
+        <v>2.8328235</v>
       </c>
       <c r="H6">
-        <v>3.048058</v>
+        <v>5.665647</v>
       </c>
       <c r="I6">
-        <v>0.09030204154573296</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J6">
-        <v>0.06866669168778029</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8293856666666667</v>
+        <v>8.496632666666665</v>
       </c>
       <c r="N6">
-        <v>2.488157</v>
+        <v>25.489898</v>
       </c>
       <c r="O6">
-        <v>0.09930183204111076</v>
+        <v>0.5711580841156996</v>
       </c>
       <c r="P6">
-        <v>0.1163358084926701</v>
+        <v>0.6081457597374211</v>
       </c>
       <c r="Q6">
-        <v>1.264007808184333</v>
+        <v>24.06946068900099</v>
       </c>
       <c r="R6">
-        <v>7.584046849106001</v>
+        <v>144.416764134006</v>
       </c>
       <c r="S6">
-        <v>0.00896715816254378</v>
+        <v>0.09214002987856824</v>
       </c>
       <c r="T6">
-        <v>0.007988395094014831</v>
+        <v>0.07803557242906381</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.524029</v>
+        <v>2.8328235</v>
       </c>
       <c r="H7">
-        <v>3.048058</v>
+        <v>5.665647</v>
       </c>
       <c r="I7">
-        <v>0.09030204154573296</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J7">
-        <v>0.06866669168778029</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.914467</v>
+        <v>1.020004666666667</v>
       </c>
       <c r="N7">
-        <v>2.743401</v>
+        <v>3.060014</v>
       </c>
       <c r="O7">
-        <v>0.1094885673707147</v>
+        <v>0.06856644673930114</v>
       </c>
       <c r="P7">
-        <v>0.1282699497477851</v>
+        <v>0.07300674717635768</v>
       </c>
       <c r="Q7">
-        <v>1.393674227543</v>
+        <v>2.889493189843</v>
       </c>
       <c r="R7">
-        <v>8.362045365258</v>
+        <v>17.336959139058</v>
       </c>
       <c r="S7">
-        <v>0.009887041159493057</v>
+        <v>0.01106123615672519</v>
       </c>
       <c r="T7">
-        <v>0.00880787309213823</v>
+        <v>0.009368022741046249</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>25.508625</v>
       </c>
       <c r="I8">
-        <v>0.5038138851085998</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J8">
-        <v>0.5746586476550658</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9574755</v>
+        <v>1.2352785</v>
       </c>
       <c r="N8">
-        <v>1.914951</v>
+        <v>2.470557</v>
       </c>
       <c r="O8">
-        <v>0.1146379484306801</v>
+        <v>0.08303751957845991</v>
       </c>
       <c r="P8">
-        <v>0.08953509477450465</v>
+        <v>0.05894330231292429</v>
       </c>
       <c r="Q8">
-        <v>8.141294492062501</v>
+        <v>10.5034186756875</v>
       </c>
       <c r="R8">
-        <v>48.847766952375</v>
+        <v>63.02051205412501</v>
       </c>
       <c r="S8">
-        <v>0.05775619017974024</v>
+        <v>0.04020801808190103</v>
       </c>
       <c r="T8">
-        <v>0.05145211648078499</v>
+        <v>0.0340531223117078</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>25.508625</v>
       </c>
       <c r="I9">
-        <v>0.5038138851085998</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J9">
-        <v>0.5746586476550658</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>5.038271</v>
       </c>
       <c r="O9">
-        <v>0.2010763551574917</v>
+        <v>0.1128937123097036</v>
       </c>
       <c r="P9">
-        <v>0.2355684670180272</v>
+        <v>0.1202046059602913</v>
       </c>
       <c r="Q9">
         <v>14.27992950970834</v>
@@ -1013,10 +1013,10 @@
         <v>128.519365587375</v>
       </c>
       <c r="S9">
-        <v>0.1013050596953726</v>
+        <v>0.05466483643688923</v>
       </c>
       <c r="T9">
-        <v>0.1353714566867565</v>
+        <v>0.06944541599425973</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>25.508625</v>
       </c>
       <c r="I10">
-        <v>0.5038138851085998</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J10">
-        <v>0.5746586476550658</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.2601</v>
+        <v>0.9657673333333333</v>
       </c>
       <c r="N10">
-        <v>3.7803</v>
+        <v>2.897302</v>
       </c>
       <c r="O10">
-        <v>0.1508709923308742</v>
+        <v>0.06492052104031899</v>
       </c>
       <c r="P10">
-        <v>0.1767510076111921</v>
+        <v>0.06912471466063731</v>
       </c>
       <c r="Q10">
-        <v>10.7144727875</v>
+        <v>8.211798914416669</v>
       </c>
       <c r="R10">
-        <v>96.43025508750002</v>
+        <v>73.90619022975</v>
       </c>
       <c r="S10">
-        <v>0.07601090079640752</v>
+        <v>0.03143549442621726</v>
       </c>
       <c r="T10">
-        <v>0.1015714950055179</v>
+        <v>0.03993519654877649</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>25.508625</v>
       </c>
       <c r="I11">
-        <v>0.5038138851085998</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J11">
-        <v>0.5746586476550658</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.711317</v>
+        <v>1.479042</v>
       </c>
       <c r="N11">
-        <v>5.422634</v>
+        <v>2.958084</v>
       </c>
       <c r="O11">
-        <v>0.3246243046691286</v>
+        <v>0.09942371621651677</v>
       </c>
       <c r="P11">
-        <v>0.2535396723558207</v>
+        <v>0.0705748701523682</v>
       </c>
       <c r="Q11">
-        <v>23.05398953637501</v>
+        <v>12.57610924575</v>
       </c>
       <c r="R11">
-        <v>138.32393721825</v>
+        <v>75.45665547450001</v>
       </c>
       <c r="S11">
-        <v>0.1635502321360314</v>
+        <v>0.04814246138007832</v>
       </c>
       <c r="T11">
-        <v>0.1456987652429044</v>
+        <v>0.04077299016388038</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>25.508625</v>
       </c>
       <c r="I12">
-        <v>0.5038138851085998</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J12">
-        <v>0.5746586476550658</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8293856666666667</v>
+        <v>8.496632666666665</v>
       </c>
       <c r="N12">
-        <v>2.488157</v>
+        <v>25.489898</v>
       </c>
       <c r="O12">
-        <v>0.09930183204111076</v>
+        <v>0.5711580841156996</v>
       </c>
       <c r="P12">
-        <v>0.1163358084926701</v>
+        <v>0.6081457597374211</v>
       </c>
       <c r="Q12">
-        <v>7.052162650458334</v>
+        <v>72.24580548558333</v>
       </c>
       <c r="R12">
-        <v>63.46946385412501</v>
+        <v>650.21224937025</v>
       </c>
       <c r="S12">
-        <v>0.05002964179903365</v>
+        <v>0.2765633498005545</v>
       </c>
       <c r="T12">
-        <v>0.06685337838225654</v>
+        <v>0.3513420715680536</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>25.508625</v>
       </c>
       <c r="I13">
-        <v>0.5038138851085998</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J13">
-        <v>0.5746586476550658</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.914467</v>
+        <v>1.020004666666667</v>
       </c>
       <c r="N13">
-        <v>2.743401</v>
+        <v>3.060014</v>
       </c>
       <c r="O13">
-        <v>0.1094885673707147</v>
+        <v>0.06856644673930114</v>
       </c>
       <c r="P13">
-        <v>0.1282699497477851</v>
+        <v>0.07300674717635768</v>
       </c>
       <c r="Q13">
-        <v>7.775598592625001</v>
+        <v>8.672972180083335</v>
       </c>
       <c r="R13">
-        <v>69.980387333625</v>
+        <v>78.05674962075</v>
       </c>
       <c r="S13">
-        <v>0.05516186050201443</v>
+        <v>0.03320090658176012</v>
       </c>
       <c r="T13">
-        <v>0.07371143585684542</v>
+        <v>0.0421779505664262</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.3890603333333333</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H14">
-        <v>1.167181</v>
+        <v>0.546386</v>
       </c>
       <c r="I14">
-        <v>0.02305267313447669</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J14">
-        <v>0.02629426929239374</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.9574755</v>
+        <v>1.2352785</v>
       </c>
       <c r="N14">
-        <v>1.914951</v>
+        <v>2.470557</v>
       </c>
       <c r="O14">
-        <v>0.1146379484306801</v>
+        <v>0.08303751957845991</v>
       </c>
       <c r="P14">
-        <v>0.08953509477450465</v>
+        <v>0.05894330231292429</v>
       </c>
       <c r="Q14">
-        <v>0.3725157371885</v>
+        <v>0.2249796261670001</v>
       </c>
       <c r="R14">
-        <v>2.235094423131</v>
+        <v>1.349877757002</v>
       </c>
       <c r="S14">
-        <v>0.002642711153979463</v>
+        <v>0.0008612419590510104</v>
       </c>
       <c r="T14">
-        <v>0.002354259893120821</v>
+        <v>0.0007294062023101902</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.3890603333333333</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H15">
-        <v>1.167181</v>
+        <v>0.546386</v>
       </c>
       <c r="I15">
-        <v>0.02305267313447669</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J15">
-        <v>0.02629426929239374</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>5.038271</v>
       </c>
       <c r="O15">
-        <v>0.2010763551574917</v>
+        <v>0.1128937123097036</v>
       </c>
       <c r="P15">
-        <v>0.2355684670180272</v>
+        <v>0.1202046059602913</v>
       </c>
       <c r="Q15">
-        <v>0.6533971315612223</v>
+        <v>0.3058711931784445</v>
       </c>
       <c r="R15">
-        <v>5.880574184051</v>
+        <v>2.752840738606</v>
       </c>
       <c r="S15">
-        <v>0.004635347490517604</v>
+        <v>0.001170902050636056</v>
       </c>
       <c r="T15">
-        <v>0.00619410070856838</v>
+        <v>0.001487496996150894</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.3890603333333333</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H16">
-        <v>1.167181</v>
+        <v>0.546386</v>
       </c>
       <c r="I16">
-        <v>0.02305267313447669</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J16">
-        <v>0.02629426929239374</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.2601</v>
+        <v>0.9657673333333333</v>
       </c>
       <c r="N16">
-        <v>3.7803</v>
+        <v>2.897302</v>
       </c>
       <c r="O16">
-        <v>0.1508709923308742</v>
+        <v>0.06492052104031899</v>
       </c>
       <c r="P16">
-        <v>0.1767510076111921</v>
+        <v>0.06912471466063731</v>
       </c>
       <c r="Q16">
-        <v>0.4902549260333334</v>
+        <v>0.1758939167302222</v>
       </c>
       <c r="R16">
-        <v>4.4122943343</v>
+        <v>1.583045250572</v>
       </c>
       <c r="S16">
-        <v>0.003477979671677783</v>
+        <v>0.0006733375106483843</v>
       </c>
       <c r="T16">
-        <v>0.004647538591830621</v>
+        <v>0.0008553982153683232</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.3890603333333333</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H17">
-        <v>1.167181</v>
+        <v>0.546386</v>
       </c>
       <c r="I17">
-        <v>0.02305267313447669</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J17">
-        <v>0.02629426929239374</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.711317</v>
+        <v>1.479042</v>
       </c>
       <c r="N17">
-        <v>5.422634</v>
+        <v>2.958084</v>
       </c>
       <c r="O17">
-        <v>0.3246243046691286</v>
+        <v>0.09942371621651677</v>
       </c>
       <c r="P17">
-        <v>0.2535396723558207</v>
+        <v>0.0705748701523682</v>
       </c>
       <c r="Q17">
-        <v>1.054865895792333</v>
+        <v>0.2693759474040001</v>
       </c>
       <c r="R17">
-        <v>6.329195374754001</v>
+        <v>1.616255684424</v>
       </c>
       <c r="S17">
-        <v>0.007483457987044197</v>
+        <v>0.001031195013593068</v>
       </c>
       <c r="T17">
-        <v>0.006666640421229227</v>
+        <v>0.0008733434673049586</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.3890603333333333</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H18">
-        <v>1.167181</v>
+        <v>0.546386</v>
       </c>
       <c r="I18">
-        <v>0.02305267313447669</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J18">
-        <v>0.02629426929239374</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8293856666666667</v>
+        <v>8.496632666666665</v>
       </c>
       <c r="N18">
-        <v>2.488157</v>
+        <v>25.489898</v>
       </c>
       <c r="O18">
-        <v>0.09930183204111076</v>
+        <v>0.5711580841156996</v>
       </c>
       <c r="P18">
-        <v>0.1163358084926701</v>
+        <v>0.6081457597374211</v>
       </c>
       <c r="Q18">
-        <v>0.3226810639352222</v>
+        <v>1.547480378736444</v>
       </c>
       <c r="R18">
-        <v>2.904129575417</v>
+        <v>13.927323408628</v>
       </c>
       <c r="S18">
-        <v>0.002289172675698431</v>
+        <v>0.005923892112731509</v>
       </c>
       <c r="T18">
-        <v>0.003058965076854615</v>
+        <v>0.007525626689630763</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.3890603333333333</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H19">
-        <v>1.167181</v>
+        <v>0.546386</v>
       </c>
       <c r="I19">
-        <v>0.02305267313447669</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J19">
-        <v>0.02629426929239374</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.914467</v>
+        <v>1.020004666666667</v>
       </c>
       <c r="N19">
-        <v>2.743401</v>
+        <v>3.060014</v>
       </c>
       <c r="O19">
-        <v>0.1094885673707147</v>
+        <v>0.06856644673930114</v>
       </c>
       <c r="P19">
-        <v>0.1282699497477851</v>
+        <v>0.07300674717635768</v>
       </c>
       <c r="Q19">
-        <v>0.3557828358423333</v>
+        <v>0.1857720899337778</v>
       </c>
       <c r="R19">
-        <v>3.202045522581</v>
+        <v>1.671948809404</v>
       </c>
       <c r="S19">
-        <v>0.002524004155559216</v>
+        <v>0.0007111520336192792</v>
       </c>
       <c r="T19">
-        <v>0.003372764600790073</v>
+        <v>0.0009034372373339348</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.717841</v>
+        <v>5.6940955</v>
       </c>
       <c r="H20">
-        <v>9.435682</v>
+        <v>11.388191</v>
       </c>
       <c r="I20">
-        <v>0.2795423669681891</v>
+        <v>0.3242628913597822</v>
       </c>
       <c r="J20">
-        <v>0.2125671712145694</v>
+        <v>0.257923057098854</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.9574755</v>
+        <v>1.2352785</v>
       </c>
       <c r="N20">
-        <v>1.914951</v>
+        <v>2.470557</v>
       </c>
       <c r="O20">
-        <v>0.1146379484306801</v>
+        <v>0.08303751957845991</v>
       </c>
       <c r="P20">
-        <v>0.08953509477450465</v>
+        <v>0.05894330231292429</v>
       </c>
       <c r="Q20">
-        <v>4.5172171703955</v>
+        <v>7.03379374809675</v>
       </c>
       <c r="R20">
-        <v>18.068868681582</v>
+        <v>28.135174992387</v>
       </c>
       <c r="S20">
-        <v>0.0320461634486895</v>
+        <v>0.02692598618985593</v>
       </c>
       <c r="T20">
-        <v>0.01903222182064483</v>
+        <v>0.01520283672805139</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.717841</v>
+        <v>5.6940955</v>
       </c>
       <c r="H21">
-        <v>9.435682</v>
+        <v>11.388191</v>
       </c>
       <c r="I21">
-        <v>0.2795423669681891</v>
+        <v>0.3242628913597822</v>
       </c>
       <c r="J21">
-        <v>0.2125671712145694</v>
+        <v>0.257923057098854</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>5.038271</v>
       </c>
       <c r="O21">
-        <v>0.2010763551574917</v>
+        <v>0.1128937123097036</v>
       </c>
       <c r="P21">
-        <v>0.2355684670180272</v>
+        <v>0.1202046059602913</v>
       </c>
       <c r="Q21">
-        <v>7.923253830970333</v>
+        <v>9.562798742960165</v>
       </c>
       <c r="R21">
-        <v>47.539522985822</v>
+        <v>57.37679245776099</v>
       </c>
       <c r="S21">
-        <v>0.05620936026206148</v>
+        <v>0.03660724156988394</v>
       </c>
       <c r="T21">
-        <v>0.05007412266137464</v>
+        <v>0.03100353944664146</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.717841</v>
+        <v>5.6940955</v>
       </c>
       <c r="H22">
-        <v>9.435682</v>
+        <v>11.388191</v>
       </c>
       <c r="I22">
-        <v>0.2795423669681891</v>
+        <v>0.3242628913597822</v>
       </c>
       <c r="J22">
-        <v>0.2125671712145694</v>
+        <v>0.257923057098854</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.2601</v>
+        <v>0.9657673333333333</v>
       </c>
       <c r="N22">
-        <v>3.7803</v>
+        <v>2.897302</v>
       </c>
       <c r="O22">
-        <v>0.1508709923308742</v>
+        <v>0.06492052104031899</v>
       </c>
       <c r="P22">
-        <v>0.1767510076111921</v>
+        <v>0.06912471466063731</v>
       </c>
       <c r="Q22">
-        <v>5.944951444100001</v>
+        <v>5.499171426780332</v>
       </c>
       <c r="R22">
-        <v>35.6697086646</v>
+        <v>32.99502856068199</v>
       </c>
       <c r="S22">
-        <v>0.04217483430301209</v>
+        <v>0.02105131586111741</v>
       </c>
       <c r="T22">
-        <v>0.03757146169723594</v>
+        <v>0.01782885772635755</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.717841</v>
+        <v>5.6940955</v>
       </c>
       <c r="H23">
-        <v>9.435682</v>
+        <v>11.388191</v>
       </c>
       <c r="I23">
-        <v>0.2795423669681891</v>
+        <v>0.3242628913597822</v>
       </c>
       <c r="J23">
-        <v>0.2125671712145694</v>
+        <v>0.257923057098854</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.711317</v>
+        <v>1.479042</v>
       </c>
       <c r="N23">
-        <v>5.422634</v>
+        <v>2.958084</v>
       </c>
       <c r="O23">
-        <v>0.3246243046691286</v>
+        <v>0.09942371621651677</v>
       </c>
       <c r="P23">
-        <v>0.2535396723558207</v>
+        <v>0.0705748701523682</v>
       </c>
       <c r="Q23">
-        <v>12.791562506597</v>
+        <v>8.421806396511</v>
       </c>
       <c r="R23">
-        <v>51.16625002638801</v>
+        <v>33.687225586044</v>
       </c>
       <c r="S23">
-        <v>0.09074624650261076</v>
+        <v>0.03223942169010219</v>
       </c>
       <c r="T23">
-        <v>0.05389421094334557</v>
+        <v>0.01820288626405347</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.717841</v>
+        <v>5.6940955</v>
       </c>
       <c r="H24">
-        <v>9.435682</v>
+        <v>11.388191</v>
       </c>
       <c r="I24">
-        <v>0.2795423669681891</v>
+        <v>0.3242628913597822</v>
       </c>
       <c r="J24">
-        <v>0.2125671712145694</v>
+        <v>0.257923057098854</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.8293856666666667</v>
+        <v>8.496632666666665</v>
       </c>
       <c r="N24">
-        <v>2.488157</v>
+        <v>25.489898</v>
       </c>
       <c r="O24">
-        <v>0.09930183204111076</v>
+        <v>0.5711580841156996</v>
       </c>
       <c r="P24">
-        <v>0.1163358084926701</v>
+        <v>0.6081457597374211</v>
       </c>
       <c r="Q24">
-        <v>3.912909703012333</v>
+        <v>48.38063783241965</v>
       </c>
       <c r="R24">
-        <v>23.477458218074</v>
+        <v>290.2838269945179</v>
       </c>
       <c r="S24">
-        <v>0.02775906917304967</v>
+        <v>0.1852053717788704</v>
       </c>
       <c r="T24">
-        <v>0.02472917372224677</v>
+        <v>0.1568548135131808</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.717841</v>
+        <v>5.6940955</v>
       </c>
       <c r="H25">
-        <v>9.435682</v>
+        <v>11.388191</v>
       </c>
       <c r="I25">
-        <v>0.2795423669681891</v>
+        <v>0.3242628913597822</v>
       </c>
       <c r="J25">
-        <v>0.2125671712145694</v>
+        <v>0.257923057098854</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.914467</v>
+        <v>1.020004666666667</v>
       </c>
       <c r="N25">
-        <v>2.743401</v>
+        <v>3.060014</v>
       </c>
       <c r="O25">
-        <v>0.1094885673707147</v>
+        <v>0.06856644673930114</v>
       </c>
       <c r="P25">
-        <v>0.1282699497477851</v>
+        <v>0.07300674717635768</v>
       </c>
       <c r="Q25">
-        <v>4.314309905747</v>
+        <v>5.808003982445666</v>
       </c>
       <c r="R25">
-        <v>25.885859434482</v>
+        <v>34.84802389467399</v>
       </c>
       <c r="S25">
-        <v>0.03060669327876562</v>
+        <v>0.0222335542699523</v>
       </c>
       <c r="T25">
-        <v>0.02726598036972164</v>
+        <v>0.0188301234205693</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>1.295005</v>
+        <v>0.165052</v>
       </c>
       <c r="H26">
-        <v>3.885015</v>
+        <v>0.495156</v>
       </c>
       <c r="I26">
-        <v>0.07673187013628475</v>
+        <v>0.009399252040067608</v>
       </c>
       <c r="J26">
-        <v>0.08752167025935914</v>
+        <v>0.01121443689000652</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.9574755</v>
+        <v>1.2352785</v>
       </c>
       <c r="N26">
-        <v>1.914951</v>
+        <v>2.470557</v>
       </c>
       <c r="O26">
-        <v>0.1146379484306801</v>
+        <v>0.08303751957845991</v>
       </c>
       <c r="P26">
-        <v>0.08953509477450465</v>
+        <v>0.05894330231292429</v>
       </c>
       <c r="Q26">
-        <v>1.2399355598775</v>
+        <v>0.203885186982</v>
       </c>
       <c r="R26">
-        <v>7.439613359265</v>
+        <v>1.223311121892</v>
       </c>
       <c r="S26">
-        <v>0.008796384171673052</v>
+        <v>0.0007804905752999932</v>
       </c>
       <c r="T26">
-        <v>0.007836261041494666</v>
+        <v>0.0006610159438768646</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>1.295005</v>
+        <v>0.165052</v>
       </c>
       <c r="H27">
-        <v>3.885015</v>
+        <v>0.495156</v>
       </c>
       <c r="I27">
-        <v>0.07673187013628475</v>
+        <v>0.009399252040067608</v>
       </c>
       <c r="J27">
-        <v>0.08752167025935914</v>
+        <v>0.01121443689000652</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>5.038271</v>
       </c>
       <c r="O27">
-        <v>0.2010763551574917</v>
+        <v>0.1128937123097036</v>
       </c>
       <c r="P27">
-        <v>0.2355684670180272</v>
+        <v>0.1202046059602913</v>
       </c>
       <c r="Q27">
-        <v>2.174862045451667</v>
+        <v>0.2771922350306666</v>
       </c>
       <c r="R27">
-        <v>19.573758409065</v>
+        <v>2.494730115276</v>
       </c>
       <c r="S27">
-        <v>0.01542896477142213</v>
+        <v>0.001061116455737788</v>
       </c>
       <c r="T27">
-        <v>0.0206173456938545</v>
+        <v>0.001348026967429788</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>1.295005</v>
+        <v>0.165052</v>
       </c>
       <c r="H28">
-        <v>3.885015</v>
+        <v>0.495156</v>
       </c>
       <c r="I28">
-        <v>0.07673187013628475</v>
+        <v>0.009399252040067608</v>
       </c>
       <c r="J28">
-        <v>0.08752167025935914</v>
+        <v>0.01121443689000652</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.2601</v>
+        <v>0.9657673333333333</v>
       </c>
       <c r="N28">
-        <v>3.7803</v>
+        <v>2.897302</v>
       </c>
       <c r="O28">
-        <v>0.1508709923308742</v>
+        <v>0.06492052104031899</v>
       </c>
       <c r="P28">
-        <v>0.1767510076111921</v>
+        <v>0.06912471466063731</v>
       </c>
       <c r="Q28">
-        <v>1.6318358005</v>
+        <v>0.1594018299013333</v>
       </c>
       <c r="R28">
-        <v>14.6865222045</v>
+        <v>1.434616469112</v>
       </c>
       <c r="S28">
-        <v>0.01157661339086506</v>
+        <v>0.0006102043398304703</v>
       </c>
       <c r="T28">
-        <v>0.01546954340615623</v>
+        <v>0.0007751947501014253</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>1.295005</v>
+        <v>0.165052</v>
       </c>
       <c r="H29">
-        <v>3.885015</v>
+        <v>0.495156</v>
       </c>
       <c r="I29">
-        <v>0.07673187013628475</v>
+        <v>0.009399252040067608</v>
       </c>
       <c r="J29">
-        <v>0.08752167025935914</v>
+        <v>0.01121443689000652</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.711317</v>
+        <v>1.479042</v>
       </c>
       <c r="N29">
-        <v>5.422634</v>
+        <v>2.958084</v>
       </c>
       <c r="O29">
-        <v>0.3246243046691286</v>
+        <v>0.09942371621651677</v>
       </c>
       <c r="P29">
-        <v>0.2535396723558207</v>
+        <v>0.0705748701523682</v>
       </c>
       <c r="Q29">
-        <v>3.511169071585</v>
+        <v>0.244118840184</v>
       </c>
       <c r="R29">
-        <v>21.06701442951</v>
+        <v>1.464713041104</v>
       </c>
       <c r="S29">
-        <v>0.02490902998895331</v>
+        <v>0.0009345085674791981</v>
       </c>
       <c r="T29">
-        <v>0.02219021560159209</v>
+        <v>0.0007914574273441377</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>1.295005</v>
+        <v>0.165052</v>
       </c>
       <c r="H30">
-        <v>3.885015</v>
+        <v>0.495156</v>
       </c>
       <c r="I30">
-        <v>0.07673187013628475</v>
+        <v>0.009399252040067608</v>
       </c>
       <c r="J30">
-        <v>0.08752167025935914</v>
+        <v>0.01121443689000652</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.8293856666666667</v>
+        <v>8.496632666666665</v>
       </c>
       <c r="N30">
-        <v>2.488157</v>
+        <v>25.489898</v>
       </c>
       <c r="O30">
-        <v>0.09930183204111076</v>
+        <v>0.5711580841156996</v>
       </c>
       <c r="P30">
-        <v>0.1163358084926701</v>
+        <v>0.6081457597374211</v>
       </c>
       <c r="Q30">
-        <v>1.074058585261667</v>
+        <v>1.402386214898666</v>
       </c>
       <c r="R30">
-        <v>9.666527267355001</v>
+        <v>12.621475934088</v>
       </c>
       <c r="S30">
-        <v>0.007619615280473672</v>
+        <v>0.005368458787325596</v>
       </c>
       <c r="T30">
-        <v>0.01018190427025143</v>
+        <v>0.006820012242500375</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>1.295005</v>
+        <v>0.165052</v>
       </c>
       <c r="H31">
-        <v>3.885015</v>
+        <v>0.495156</v>
       </c>
       <c r="I31">
-        <v>0.07673187013628475</v>
+        <v>0.009399252040067608</v>
       </c>
       <c r="J31">
-        <v>0.08752167025935914</v>
+        <v>0.01121443689000652</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.914467</v>
+        <v>1.020004666666667</v>
       </c>
       <c r="N31">
-        <v>2.743401</v>
+        <v>3.060014</v>
       </c>
       <c r="O31">
-        <v>0.1094885673707147</v>
+        <v>0.06856644673930114</v>
       </c>
       <c r="P31">
-        <v>0.1282699497477851</v>
+        <v>0.07300674717635768</v>
       </c>
       <c r="Q31">
-        <v>1.184239337335</v>
+        <v>0.1683538102426667</v>
       </c>
       <c r="R31">
-        <v>10.658154036015</v>
+        <v>1.515184292184</v>
       </c>
       <c r="S31">
-        <v>0.008401262532897542</v>
+        <v>0.0006444733143945631</v>
       </c>
       <c r="T31">
-        <v>0.01122640024601021</v>
+        <v>0.0008187295587539246</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.4482056666666667</v>
+        <v>0.183146</v>
       </c>
       <c r="H32">
-        <v>1.344617</v>
+        <v>0.549438</v>
       </c>
       <c r="I32">
-        <v>0.02655716310671665</v>
+        <v>0.01042965498224936</v>
       </c>
       <c r="J32">
-        <v>0.03029154989083149</v>
+        <v>0.01244383139045351</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.9574755</v>
+        <v>1.2352785</v>
       </c>
       <c r="N32">
-        <v>1.914951</v>
+        <v>2.470557</v>
       </c>
       <c r="O32">
-        <v>0.1146379484306801</v>
+        <v>0.08303751957845991</v>
       </c>
       <c r="P32">
-        <v>0.08953509477450465</v>
+        <v>0.05894330231292429</v>
       </c>
       <c r="Q32">
-        <v>0.4291459447945</v>
+        <v>0.226236316161</v>
       </c>
       <c r="R32">
-        <v>2.574875668767</v>
+        <v>1.357417896966</v>
       </c>
       <c r="S32">
-        <v>0.003044458694692943</v>
+        <v>0.0008660526797851135</v>
       </c>
       <c r="T32">
-        <v>0.002712156790342234</v>
+        <v>0.0007334805155785586</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.4482056666666667</v>
+        <v>0.183146</v>
       </c>
       <c r="H33">
-        <v>1.344617</v>
+        <v>0.549438</v>
       </c>
       <c r="I33">
-        <v>0.02655716310671665</v>
+        <v>0.01042965498224936</v>
       </c>
       <c r="J33">
-        <v>0.03029154989083149</v>
+        <v>0.01244383139045351</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>5.038271</v>
       </c>
       <c r="O33">
-        <v>0.2010763551574917</v>
+        <v>0.1128937123097036</v>
       </c>
       <c r="P33">
-        <v>0.2355684670180272</v>
+        <v>0.1202046059602913</v>
       </c>
       <c r="Q33">
-        <v>0.7527272041341111</v>
+        <v>0.3075797268553334</v>
       </c>
       <c r="R33">
-        <v>6.774544837206999</v>
+        <v>2.768217541698</v>
       </c>
       <c r="S33">
-        <v>0.005340017560821594</v>
+        <v>0.001177442469055527</v>
       </c>
       <c r="T33">
-        <v>0.007135733971383265</v>
+        <v>0.001495805848925768</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.4482056666666667</v>
+        <v>0.183146</v>
       </c>
       <c r="H34">
-        <v>1.344617</v>
+        <v>0.549438</v>
       </c>
       <c r="I34">
-        <v>0.02655716310671665</v>
+        <v>0.01042965498224936</v>
       </c>
       <c r="J34">
-        <v>0.03029154989083149</v>
+        <v>0.01244383139045351</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.2601</v>
+        <v>0.9657673333333333</v>
       </c>
       <c r="N34">
-        <v>3.7803</v>
+        <v>2.897302</v>
       </c>
       <c r="O34">
-        <v>0.1508709923308742</v>
+        <v>0.06492052104031899</v>
       </c>
       <c r="P34">
-        <v>0.1767510076111921</v>
+        <v>0.06912471466063731</v>
       </c>
       <c r="Q34">
-        <v>0.5647839605666668</v>
+        <v>0.1768764240306667</v>
       </c>
       <c r="R34">
-        <v>5.0830556451</v>
+        <v>1.591887816276</v>
       </c>
       <c r="S34">
-        <v>0.004006705551403224</v>
+        <v>0.0006770986357183877</v>
       </c>
       <c r="T34">
-        <v>0.005354061965309163</v>
+        <v>0.0008601762941501808</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.4482056666666667</v>
+        <v>0.183146</v>
       </c>
       <c r="H35">
-        <v>1.344617</v>
+        <v>0.549438</v>
       </c>
       <c r="I35">
-        <v>0.02655716310671665</v>
+        <v>0.01042965498224936</v>
       </c>
       <c r="J35">
-        <v>0.03029154989083149</v>
+        <v>0.01244383139045351</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.711317</v>
+        <v>1.479042</v>
       </c>
       <c r="N35">
-        <v>5.422634</v>
+        <v>2.958084</v>
       </c>
       <c r="O35">
-        <v>0.3246243046691286</v>
+        <v>0.09942371621651677</v>
       </c>
       <c r="P35">
-        <v>0.2535396723558207</v>
+        <v>0.0705748701523682</v>
       </c>
       <c r="Q35">
-        <v>1.215227643529667</v>
+        <v>0.270880626132</v>
       </c>
       <c r="R35">
-        <v>7.291365861178</v>
+        <v>1.625283756792</v>
       </c>
       <c r="S35">
-        <v>0.008621100607502527</v>
+        <v>0.001036955057191341</v>
       </c>
       <c r="T35">
-        <v>0.007680109634471413</v>
+        <v>0.0008782217845792202</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.4482056666666667</v>
+        <v>0.183146</v>
       </c>
       <c r="H36">
-        <v>1.344617</v>
+        <v>0.549438</v>
       </c>
       <c r="I36">
-        <v>0.02655716310671665</v>
+        <v>0.01042965498224936</v>
       </c>
       <c r="J36">
-        <v>0.03029154989083149</v>
+        <v>0.01244383139045351</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.8293856666666667</v>
+        <v>8.496632666666665</v>
       </c>
       <c r="N36">
-        <v>2.488157</v>
+        <v>25.489898</v>
       </c>
       <c r="O36">
-        <v>0.09930183204111076</v>
+        <v>0.5711580841156996</v>
       </c>
       <c r="P36">
-        <v>0.1163358084926701</v>
+        <v>0.6081457597374211</v>
       </c>
       <c r="Q36">
-        <v>0.3717353556521111</v>
+        <v>1.556124286369333</v>
       </c>
       <c r="R36">
-        <v>3.345618200869</v>
+        <v>14.005118577324</v>
       </c>
       <c r="S36">
-        <v>0.00263717495031156</v>
+        <v>0.005956981757649307</v>
       </c>
       <c r="T36">
-        <v>0.003523991947045935</v>
+        <v>0.007567663294991722</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.4482056666666667</v>
+        <v>0.183146</v>
       </c>
       <c r="H37">
-        <v>1.344617</v>
+        <v>0.549438</v>
       </c>
       <c r="I37">
-        <v>0.02655716310671665</v>
+        <v>0.01042965498224936</v>
       </c>
       <c r="J37">
-        <v>0.03029154989083149</v>
+        <v>0.01244383139045351</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.914467</v>
+        <v>1.020004666666667</v>
       </c>
       <c r="N37">
-        <v>2.743401</v>
+        <v>3.060014</v>
       </c>
       <c r="O37">
-        <v>0.1094885673707147</v>
+        <v>0.06856644673930114</v>
       </c>
       <c r="P37">
-        <v>0.1282699497477851</v>
+        <v>0.07300674717635768</v>
       </c>
       <c r="Q37">
-        <v>0.4098692913796667</v>
+        <v>0.1868097746813333</v>
       </c>
       <c r="R37">
-        <v>3.688823622417</v>
+        <v>1.681287972132</v>
       </c>
       <c r="S37">
-        <v>0.002907705741984804</v>
+        <v>0.0007151243828496877</v>
       </c>
       <c r="T37">
-        <v>0.00388549558227948</v>
+        <v>0.0009084836522280631</v>
       </c>
     </row>
   </sheetData>
